--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj2-2021-prj2-2021-g19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C4FA9-9183-4365-96F7-528E11A5C27D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B718EF53-E3BA-934B-8A6C-1D6E1FF3B069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -111,7 +111,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -530,15 +530,15 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44236</v>
       </c>
@@ -574,25 +574,39 @@
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44249</v>
+      </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44252</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -600,21 +614,21 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -622,266 +636,266 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -902,7 +916,7 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -917,7 +931,7 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B718EF53-E3BA-934B-8A6C-1D6E1FF3B069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D86D7F-FC1D-C94D-9C39-42A8B09896B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -600,19 +600,39 @@
       <c r="A4" s="2">
         <v>44252</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D86D7F-FC1D-C94D-9C39-42A8B09896B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB586F8F-7E3D-8F4F-A15F-3157999DAA7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -635,11 +635,24 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="2">
+        <v>44259</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB586F8F-7E3D-8F4F-A15F-3157999DAA7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD4CFC9-731B-564F-A253-7051F1E1486E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,14 +655,29 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>44266</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -670,6 +685,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44270</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD4CFC9-731B-564F-A253-7051F1E1486E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9420158C-A1F0-594A-8449-2675D37C4F17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
+    <workbookView xWindow="34140" yWindow="3040" windowWidth="28800" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -678,11 +678,21 @@
       <c r="A8" s="2">
         <v>44266</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -695,6 +705,9 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44273</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -702,6 +715,9 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44277</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -709,6 +725,9 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44280</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9420158C-A1F0-594A-8449-2675D37C4F17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D4C73-8032-2445-B712-D72781C2EC07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34140" yWindow="3040" windowWidth="28800" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -698,11 +698,21 @@
       <c r="A9" s="2">
         <v>44270</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D4C73-8032-2445-B712-D72781C2EC07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D82F43-EDE4-7F4B-B957-88E74ADA5C27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34140" yWindow="3040" windowWidth="28800" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
+    <workbookView xWindow="-1980" yWindow="-19420" windowWidth="28800" windowHeight="16420" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -718,11 +718,21 @@
       <c r="A10" s="2">
         <v>44273</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D82F43-EDE4-7F4B-B957-88E74ADA5C27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D71ED5-9941-564A-98B2-2F76F0752E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1980" yWindow="-19420" windowWidth="28800" windowHeight="16420" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,11 +738,21 @@
       <c r="A11" s="2">
         <v>44277</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D71ED5-9941-564A-98B2-2F76F0752E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FBF604-E83F-924E-A501-937CC342EC2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1980" yWindow="-19420" windowWidth="28800" windowHeight="16420" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -765,6 +765,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44284</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -772,6 +775,9 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44287</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FBF604-E83F-924E-A501-937CC342EC2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E9CAAB-E50F-DE48-8FB8-BA7FBBAB7256}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1980" yWindow="-19420" windowWidth="28800" windowHeight="16420" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -758,11 +758,19 @@
       <c r="A12" s="2">
         <v>44280</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E9CAAB-E50F-DE48-8FB8-BA7FBBAB7256}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661890C0-2D24-D941-87F9-F91C84227800}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1980" yWindow="-19420" windowWidth="28800" windowHeight="16420" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,11 +776,21 @@
       <c r="A13" s="2">
         <v>44284</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661890C0-2D24-D941-87F9-F91C84227800}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68617558-F9D5-5B47-84FC-6AE8DE3280E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1980" yWindow="-19420" windowWidth="28800" windowHeight="16420" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -796,18 +796,39 @@
       <c r="A14" s="2">
         <v>44287</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
+      <c r="A15" s="2">
+        <v>44292</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajinder/Documents/GitHub/prj2-2021-prj2-2021-g19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj2-2021-prj2-2021-g19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68617558-F9D5-5B47-84FC-6AE8DE3280E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560AEEE6-6375-45BD-ADA2-1F81CD7434C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1980" yWindow="-19420" windowWidth="28800" windowHeight="16420" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -111,7 +111,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -530,15 +530,15 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44236</v>
       </c>
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44249</v>
       </c>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44252</v>
       </c>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44256</v>
       </c>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44259</v>
       </c>
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44263</v>
       </c>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44266</v>
       </c>
@@ -694,7 +694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44270</v>
       </c>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44273</v>
       </c>
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44277</v>
       </c>
@@ -754,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44280</v>
       </c>
@@ -772,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44284</v>
       </c>
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44287</v>
       </c>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44292</v>
       </c>
@@ -830,217 +830,226 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44295</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1061,7 +1070,7 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1076,7 +1085,7 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj2-2021-prj2-2021-g19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560AEEE6-6375-45BD-ADA2-1F81CD7434C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D81B4F-6583-4E84-81DB-48A7D202DE02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -49,13 +49,13 @@
     <t>J.Lamers</t>
   </si>
   <si>
-    <t>E. Manev</t>
-  </si>
-  <si>
     <t>R. Multani</t>
   </si>
   <si>
     <t>J. Tavernier</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2103B5-767F-432D-825C-6F30EDDAA71A}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
     <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,16 +549,13 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44236</v>
       </c>
@@ -574,11 +571,8 @@
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44249</v>
       </c>
@@ -592,29 +586,25 @@
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44252</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44256</v>
       </c>
@@ -630,11 +620,8 @@
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44259</v>
       </c>
@@ -650,11 +637,8 @@
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44263</v>
       </c>
@@ -670,11 +654,8 @@
       <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44266</v>
       </c>
@@ -690,11 +671,8 @@
       <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44270</v>
       </c>
@@ -710,11 +688,8 @@
       <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44273</v>
       </c>
@@ -730,11 +705,8 @@
       <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44277</v>
       </c>
@@ -750,29 +722,25 @@
       <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44280</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44284</v>
       </c>
@@ -788,11 +756,8 @@
       <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44287</v>
       </c>
@@ -808,253 +773,315 @@
       <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44292</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44295</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44308</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44309</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44315</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
